--- a/beam/Assets/Levels/level8visual.xlsx
+++ b/beam/Assets/Levels/level8visual.xlsx
@@ -444,7 +444,7 @@
   <dimension ref="A1:AA28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,7 +551,6 @@
         <v>0</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="H3" s="8"/>
       <c r="L3" s="3"/>
       <c r="T3" s="3"/>
       <c r="W3" s="1"/>
@@ -564,9 +563,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="C4" s="7"/>
       <c r="L4" s="3"/>
       <c r="N4" s="3"/>
       <c r="T4" s="3"/>
@@ -678,7 +675,7 @@
       <c r="L10" s="3"/>
       <c r="M10" s="9"/>
       <c r="N10" s="3"/>
-      <c r="P10" s="8"/>
+      <c r="P10" s="3"/>
       <c r="R10" s="3"/>
       <c r="T10" s="3"/>
       <c r="W10" s="1"/>
@@ -743,6 +740,7 @@
       <c r="I13" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="M13" s="7"/>
       <c r="Q13" s="3" t="s">
         <v>8</v>
       </c>
